--- a/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
+++ b/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>acuerdo de nivel de servicio</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">respecto a la creacion de placas y sticker </t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -414,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +501,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>

--- a/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
+++ b/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>acuerdo de nivel de servicio</t>
   </si>
@@ -43,12 +43,6 @@
     <t xml:space="preserve">el primero el de los espacios </t>
   </si>
   <si>
-    <t>objetivos especificos de los modulos</t>
-  </si>
-  <si>
-    <t>agregar rol de mantenimiento, actor con funciones,, reparaciones con precio inversion de solicitud</t>
-  </si>
-  <si>
     <t>alcance de nivel de negocio, que es lo que voy a cumplir definir  modulos, dlimitar de control de inventario.</t>
   </si>
   <si>
@@ -61,19 +55,10 @@
     <t>recomendacion implementar control de inventario con sistemas, placas</t>
   </si>
   <si>
-    <t xml:space="preserve">quitar prototipo, </t>
-  </si>
-  <si>
     <t xml:space="preserve">actualizar cronograma, con mas actividades,  </t>
   </si>
   <si>
-    <t xml:space="preserve">sustentar normas  APA alinear a la izquierda, paginacion (por impresion), </t>
-  </si>
-  <si>
     <t xml:space="preserve">respecto a la creacion de placas y sticker </t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
 </sst>
 </file>
@@ -89,12 +74,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,59 +463,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
+++ b/Documentacion/Sustentacion marzo 2017/Observaciones del audio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>acuerdo de nivel de servicio</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>alcance de nivel de negocio, que es lo que voy a cumplir definir  modulos, dlimitar de control de inventario.</t>
-  </si>
-  <si>
-    <t>definir en marco terorico incidencia, caso solcitud, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escalabilidad, </t>
   </si>
   <si>
     <t>recomendacion implementar control de inventario con sistemas, placas</t>
@@ -410,7 +404,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,12 +413,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -468,29 +462,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
+      <c r="A22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
